--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507708.3316293243</v>
+        <v>511423.9361930215</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340086</v>
+        <v>714286.6128340089</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975869</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7426431.419821443</v>
+        <v>7426431.419821442</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>151.0877754068268</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>183.8255158869147</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
@@ -747,16 +749,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>31.74890147707598</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.3424411355423</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>46.16685623779797</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>185.6869874578313</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -959,10 +961,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>206.9307354107613</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V6" t="n">
-        <v>174.3572224783882</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.16685623779797</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>103.1087300426801</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>33.17429714208097</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>89.49663856023973</v>
       </c>
       <c r="C9" t="n">
-        <v>45.9215021878314</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>138.3424411355423</v>
       </c>
       <c r="T10" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>325.224086848979</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>111.7249996272185</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
         <v>67.69846245683961</v>
@@ -1503,19 +1505,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>86.49744856148256</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>170.5741002858144</v>
       </c>
     </row>
     <row r="13">
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>308.0592368460655</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>185.3566856159496</v>
@@ -1673,7 +1675,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>218.3273332069601</v>
       </c>
     </row>
     <row r="15">
@@ -1689,22 +1691,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.562210781157479</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.3424411355423</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>143.6532814811978</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
@@ -1910,7 +1912,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>218.3273332069601</v>
       </c>
     </row>
     <row r="18">
@@ -1923,16 +1925,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>121.5789354633579</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1980,10 +1982,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>10.1518352840637</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
         <v>195.9378182409833</v>
@@ -2023,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>88.40825936926059</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.95154967741722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
         <v>222.1153568062989</v>
@@ -2147,7 +2149,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.9228608033512</v>
+        <v>308.0592368460655</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>89.49663856023973</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2223,10 +2225,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>31.00907095894639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>30.84765070733269</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>196.9922742241714</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>136.9569506905792</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>196.247923873769</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>62.68926115768106</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
@@ -2406,13 +2408,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>168.5052963341061</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>242.420315677682</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>34.01480318200027</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.1339994851839</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
         <v>160.0866360314548</v>
@@ -2640,16 +2642,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>100.2188783614049</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2716,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>144.3503149004801</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.5681621840667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>382.3172461617984</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>16.54145037472274</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2882,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>31.74890147707598</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2992,31 +2994,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.16685623779799</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>14.50387586212028</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>79.22147732004949</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>13.7382716373767</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3114,13 +3116,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>186.7982527956746</v>
+        <v>109.0305713435654</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>57.19921267063025</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>125.2040305762913</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>273.4700829143214</v>
       </c>
       <c r="H35" t="n">
-        <v>109.9201738745656</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.8252483534483</v>
+        <v>132.4615303982795</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
@@ -3354,16 +3356,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>31.74890147707598</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3405,13 +3407,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>167.1394242513582</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>242.4203156776819</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>120.8391135758914</v>
+        <v>318.0704406250248</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>119.3821878708685</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
@@ -3588,13 +3590,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3648,7 +3650,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="40">
@@ -3667,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>50.7733344546449</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H40" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.59602910536552</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
@@ -3752,7 +3754,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>52.84580724662405</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3834,10 +3836,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.30833154240005</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>216.3098444776729</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3882,10 +3884,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3940,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>268.6107013963112</v>
+        <v>109.7129576363817</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3980,16 +3982,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>168.3771638835608</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>79.92515991800884</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4065,16 +4067,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4113,10 +4115,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>10.1518352840637</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4141,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>609.6271747862963</v>
+        <v>576.5719293207421</v>
       </c>
       <c r="C2" t="n">
-        <v>609.6271747862963</v>
+        <v>194.6381706535495</v>
       </c>
       <c r="D2" t="n">
-        <v>609.6271747862963</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
@@ -4337,10 +4339,10 @@
         <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4355,25 +4357,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T2" t="n">
-        <v>1876.853858790972</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U2" t="n">
-        <v>1691.171519511261</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.192245407202</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W2" t="n">
-        <v>991.6573152648029</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="X2" t="n">
-        <v>609.6271747862963</v>
+        <v>970.6154688387612</v>
       </c>
       <c r="Y2" t="n">
-        <v>609.6271747862963</v>
+        <v>970.6154688387612</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E3" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L3" t="n">
-        <v>252.8463055811703</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>1948.413318072701</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T3" t="n">
-        <v>1759.728214238687</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U3" t="n">
-        <v>1541.233421836997</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V3" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W3" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X3" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y3" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4510,28 +4512,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R4" t="n">
-        <v>488.9129718818328</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S4" t="n">
-        <v>275.2032092855204</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.02425610119923</v>
+        <v>735.225342888863</v>
       </c>
       <c r="C5" t="n">
-        <v>42.02425610119923</v>
+        <v>735.225342888863</v>
       </c>
       <c r="D5" t="n">
-        <v>42.02425610119923</v>
+        <v>735.225342888863</v>
       </c>
       <c r="E5" t="n">
-        <v>42.02425610119923</v>
+        <v>735.225342888863</v>
       </c>
       <c r="F5" t="n">
-        <v>42.02425610119923</v>
+        <v>735.225342888863</v>
       </c>
       <c r="G5" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4568,16 +4570,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L5" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4589,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T5" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U5" t="n">
-        <v>1344.101260631174</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V5" t="n">
-        <v>1007.121986527115</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W5" t="n">
-        <v>644.5870563847161</v>
+        <v>735.225342888863</v>
       </c>
       <c r="X5" t="n">
-        <v>435.5661115253612</v>
+        <v>735.225342888863</v>
       </c>
       <c r="Y5" t="n">
-        <v>42.02425610119923</v>
+        <v>735.225342888863</v>
       </c>
     </row>
     <row r="6">
@@ -4644,40 +4646,40 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N6" t="n">
-        <v>1693.889799997958</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O6" t="n">
-        <v>2086.089750782109</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P6" t="n">
-        <v>2101.212805059961</v>
+        <v>2098.440970964512</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U6" t="n">
-        <v>1888.629049167647</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V6" t="n">
         <v>1712.510642623821</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4744,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>488.9129718818328</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>275.2032092855204</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1876.853858790972</v>
+        <v>929.5964879622866</v>
       </c>
       <c r="C8" t="n">
-        <v>1876.853858790972</v>
+        <v>547.662729295094</v>
       </c>
       <c r="D8" t="n">
-        <v>1772.703626424629</v>
+        <v>547.662729295094</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G8" t="n">
         <v>547.662729295094</v>
@@ -4802,19 +4804,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4832,22 +4834,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.853858790972</v>
+        <v>2067.703414007354</v>
       </c>
       <c r="U8" t="n">
-        <v>1876.853858790972</v>
+        <v>2067.703414007354</v>
       </c>
       <c r="V8" t="n">
-        <v>1876.853858790972</v>
+        <v>2067.703414007354</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.853858790972</v>
+        <v>1705.168483864955</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.853858790972</v>
+        <v>1323.138343386448</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.853858790972</v>
+        <v>929.5964879622866</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C9" t="n">
-        <v>415.4945486144147</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D9" t="n">
-        <v>276.6559116046268</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>276.6559116046268</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>141.9621135545012</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>407.8461012713149</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>892.8794547815413</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4923,10 +4925,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>1011.737661613587</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="C10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="D10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="E10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4987,25 +4989,25 @@
         <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>172.3146160188864</v>
+        <v>246.284539084348</v>
       </c>
       <c r="T10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="U10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="W10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="X10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="Y10" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>818.7437346622851</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C11" t="n">
-        <v>436.8099759950924</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="D11" t="n">
-        <v>436.8099759950924</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E11" t="n">
-        <v>42.02425610119923</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F11" t="n">
-        <v>42.02425610119923</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G11" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H11" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I11" t="n">
         <v>42.02425610119923</v>
@@ -5075,16 +5077,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V11" t="n">
-        <v>1988.359270082973</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W11" t="n">
-        <v>1988.359270082973</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X11" t="n">
-        <v>1606.329129604466</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y11" t="n">
-        <v>1212.787274180304</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>821.3991591499413</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C12" t="n">
-        <v>659.695486390896</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D12" t="n">
-        <v>520.8568493811081</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E12" t="n">
-        <v>373.8288394379794</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F12" t="n">
-        <v>239.1350413878537</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G12" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H12" t="n">
         <v>110.4065414111382</v>
@@ -5121,19 +5123,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K12" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L12" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M12" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N12" t="n">
-        <v>1693.889799997958</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O12" t="n">
-        <v>1799.116885784264</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P12" t="n">
         <v>2101.212805059961</v>
@@ -5151,19 +5153,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U12" t="n">
-        <v>1612.572785170519</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V12" t="n">
-        <v>1612.572785170519</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W12" t="n">
-        <v>1371.256916403829</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X12" t="n">
-        <v>1173.339928281623</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="Y12" t="n">
-        <v>980.8186019312022</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5218,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R13" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S13" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y13" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>353.1952024103563</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C14" t="n">
-        <v>353.1952024103563</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D14" t="n">
-        <v>353.1952024103563</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E14" t="n">
-        <v>353.1952024103563</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F14" t="n">
-        <v>353.1952024103563</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G14" t="n">
         <v>42.02425610119923</v>
@@ -5276,19 +5278,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J14" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K14" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L14" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M14" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N14" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O14" t="n">
         <v>1778.623654917371</v>
@@ -5300,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S14" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T14" t="n">
-        <v>1689.624883421327</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U14" t="n">
-        <v>1434.739547135321</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V14" t="n">
-        <v>1097.760273031262</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W14" t="n">
-        <v>735.225342888863</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X14" t="n">
-        <v>353.1952024103563</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y14" t="n">
-        <v>353.1952024103563</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>521.6641732647531</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C15" t="n">
-        <v>359.9605005057078</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D15" t="n">
-        <v>359.9605005057078</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E15" t="n">
-        <v>212.9324905625791</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F15" t="n">
-        <v>212.9324905625791</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G15" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J15" t="n">
-        <v>49.73385863501696</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K15" t="n">
-        <v>279.2244111952056</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L15" t="n">
-        <v>645.0462563653213</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M15" t="n">
-        <v>1130.079609875548</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N15" t="n">
-        <v>1641.34525599867</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O15" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P15" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S15" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T15" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U15" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V15" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.521930518641</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X15" t="n">
-        <v>873.6049423964351</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y15" t="n">
-        <v>681.083616046014</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="C16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="D16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="E16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="F16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="G16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="H16" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I16" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5461,25 +5463,25 @@
         <v>386.0243786151989</v>
       </c>
       <c r="S16" t="n">
-        <v>172.3146160188864</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="U16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="V16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="W16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="X16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="Y16" t="n">
-        <v>42.02425610119923</v>
+        <v>386.0243786151989</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>423.9580147683919</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C17" t="n">
         <v>42.02425610119923</v>
@@ -5537,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T17" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V17" t="n">
-        <v>1956.108480331479</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W17" t="n">
-        <v>1593.57355018908</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X17" t="n">
-        <v>1211.543409710573</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y17" t="n">
-        <v>818.001554286411</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>759.6333438441981</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="D18" t="n">
-        <v>620.7947068344101</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="E18" t="n">
-        <v>473.7666968912813</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F18" t="n">
         <v>339.0728988411556</v>
@@ -5595,22 +5597,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>42.02425610119923</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L18" t="n">
-        <v>252.8463055811703</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M18" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N18" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O18" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P18" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q18" t="n">
         <v>2101.212805059961</v>
@@ -5628,16 +5630,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V18" t="n">
-        <v>1481.449152931943</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W18" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X18" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y18" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="C19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="D19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="E19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="F19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="G19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="H19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="I19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J19" t="n">
         <v>42.02425610119923</v>
@@ -5695,28 +5697,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S19" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T19" t="n">
-        <v>340.9045481628106</v>
+        <v>191.3827667771887</v>
       </c>
       <c r="U19" t="n">
-        <v>340.9045481628106</v>
+        <v>191.3827667771887</v>
       </c>
       <c r="V19" t="n">
-        <v>340.9045481628106</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="W19" t="n">
-        <v>340.9045481628106</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="X19" t="n">
-        <v>109.6520840581863</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C20" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D20" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E20" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F20" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G20" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H20" t="n">
         <v>42.02425610119923</v>
@@ -5750,19 +5752,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L20" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5777,25 +5779,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T20" t="n">
-        <v>1876.853858790972</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U20" t="n">
-        <v>1621.968522504967</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V20" t="n">
-        <v>1284.989248400908</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W20" t="n">
-        <v>922.4543182585089</v>
+        <v>735.225342888863</v>
       </c>
       <c r="X20" t="n">
-        <v>540.4241777800023</v>
+        <v>353.1952024103563</v>
       </c>
       <c r="Y20" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>782.4983795934554</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C21" t="n">
-        <v>620.7947068344101</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D21" t="n">
         <v>620.7947068344101</v>
@@ -5835,19 +5837,19 @@
         <v>331.768955194494</v>
       </c>
       <c r="L21" t="n">
-        <v>697.5908003646097</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M21" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O21" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5871,10 +5873,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X21" t="n">
-        <v>813.8206734913811</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="Y21" t="n">
-        <v>782.4983795934554</v>
+        <v>1011.737661613587</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J22" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K22" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L22" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M22" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N22" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O22" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P22" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q22" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R22" t="n">
-        <v>574.0835013471317</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="S22" t="n">
-        <v>360.3737387508193</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="T22" t="n">
-        <v>360.3737387508193</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="U22" t="n">
-        <v>73.18349923991912</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="V22" t="n">
-        <v>73.18349923991912</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="W22" t="n">
-        <v>42.02425610119923</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="X22" t="n">
-        <v>42.02425610119923</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.02425610119923</v>
+        <v>1752.708928498409</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>886.0098495095747</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="C23" t="n">
-        <v>886.0098495095747</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D23" t="n">
-        <v>513.1858847367982</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E23" t="n">
-        <v>513.1858847367982</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F23" t="n">
-        <v>513.1858847367982</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G23" t="n">
-        <v>374.84553050389</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H23" t="n">
         <v>42.02425610119923</v>
@@ -6014,25 +6016,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S23" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T23" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U23" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V23" t="n">
-        <v>1673.595244451756</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W23" t="n">
-        <v>1673.595244451756</v>
+        <v>808.8917603919948</v>
       </c>
       <c r="X23" t="n">
-        <v>1673.595244451756</v>
+        <v>808.8917603919948</v>
       </c>
       <c r="Y23" t="n">
-        <v>1280.053389027594</v>
+        <v>808.8917603919948</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.3370166032433</v>
+        <v>557.9768611231002</v>
       </c>
       <c r="C24" t="n">
-        <v>759.6333438441981</v>
+        <v>396.2731883640549</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7947068344101</v>
+        <v>257.434551354267</v>
       </c>
       <c r="E24" t="n">
-        <v>473.7666968912813</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H24" t="n">
         <v>110.4065414111382</v>
@@ -6066,52 +6068,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L24" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M24" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N24" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O24" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P24" t="n">
-        <v>2101.212805059961</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S24" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T24" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U24" t="n">
-        <v>1882.718012658271</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W24" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X24" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="25">
@@ -6172,16 +6174,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>574.0835013471317</v>
+        <v>561.3596107681212</v>
       </c>
       <c r="T25" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="U25" t="n">
-        <v>286.8932618362315</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V25" t="n">
-        <v>286.8932618362315</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W25" t="n">
         <v>42.02425610119923</v>
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>436.8099759950924</v>
+        <v>872.4675925107471</v>
       </c>
       <c r="C26" t="n">
-        <v>436.8099759950924</v>
+        <v>490.5338338435544</v>
       </c>
       <c r="D26" t="n">
-        <v>436.8099759950924</v>
+        <v>490.5338338435544</v>
       </c>
       <c r="E26" t="n">
-        <v>42.02425610119923</v>
+        <v>490.5338338435544</v>
       </c>
       <c r="F26" t="n">
-        <v>42.02425610119923</v>
+        <v>76.38264315372476</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119923</v>
+        <v>76.38264315372476</v>
       </c>
       <c r="H26" t="n">
         <v>42.02425610119923</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T26" t="n">
-        <v>1689.624883421327</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U26" t="n">
-        <v>1434.739547135321</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V26" t="n">
-        <v>1212.381971897761</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W26" t="n">
-        <v>1212.381971897761</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X26" t="n">
-        <v>830.3518314192544</v>
+        <v>1266.009447934909</v>
       </c>
       <c r="Y26" t="n">
-        <v>436.8099759950924</v>
+        <v>872.4675925107471</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C27" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E27" t="n">
-        <v>473.7666968912813</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F27" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H27" t="n">
         <v>110.4065414111382</v>
@@ -6303,22 +6305,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L27" t="n">
-        <v>468.100247804421</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M27" t="n">
-        <v>953.1336013146474</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N27" t="n">
-        <v>1464.39924743777</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O27" t="n">
-        <v>1856.59919822192</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P27" t="n">
         <v>2101.212805059961</v>
@@ -6327,28 +6329,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S27" t="n">
-        <v>1999.981614795916</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T27" t="n">
-        <v>1999.981614795916</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U27" t="n">
-        <v>1781.486822394226</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V27" t="n">
-        <v>1553.09119984256</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W27" t="n">
-        <v>1311.77533107587</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X27" t="n">
-        <v>1113.858342953665</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y27" t="n">
-        <v>921.3370166032433</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>342.8310372425075</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="C28" t="n">
-        <v>342.8310372425075</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="D28" t="n">
-        <v>342.8310372425075</v>
+        <v>1714.961958703403</v>
       </c>
       <c r="E28" t="n">
-        <v>342.8310372425075</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F28" t="n">
-        <v>342.8310372425075</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G28" t="n">
-        <v>173.9112886103575</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H28" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I28" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J28" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K28" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L28" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M28" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N28" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O28" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P28" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q28" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R28" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S28" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T28" t="n">
-        <v>574.0835013471317</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="U28" t="n">
-        <v>574.0835013471317</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="V28" t="n">
-        <v>574.0835013471317</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="W28" t="n">
-        <v>574.0835013471317</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="X28" t="n">
-        <v>342.8310372425075</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="Y28" t="n">
-        <v>342.8310372425075</v>
+        <v>1868.03385187564</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>214.8414548924032</v>
+        <v>1182.961016068238</v>
       </c>
       <c r="C29" t="n">
-        <v>214.8414548924032</v>
+        <v>801.0272574010448</v>
       </c>
       <c r="D29" t="n">
-        <v>214.8414548924032</v>
+        <v>428.2032926282684</v>
       </c>
       <c r="E29" t="n">
-        <v>214.8414548924032</v>
+        <v>428.2032926282684</v>
       </c>
       <c r="F29" t="n">
-        <v>214.8414548924032</v>
+        <v>428.2032926282684</v>
       </c>
       <c r="G29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
@@ -6485,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S29" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T29" t="n">
-        <v>1598.98659691718</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U29" t="n">
-        <v>1344.101260631174</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V29" t="n">
-        <v>1007.121986527115</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="W29" t="n">
-        <v>990.4134507950719</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="X29" t="n">
-        <v>608.3833103165653</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="Y29" t="n">
-        <v>214.8414548924032</v>
+        <v>1577.004555586257</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C30" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D30" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E30" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F30" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G30" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K30" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L30" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M30" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N30" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O30" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P30" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
@@ -6567,25 +6569,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T30" t="n">
-        <v>1759.728214238687</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U30" t="n">
-        <v>1541.233421836997</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V30" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W30" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X30" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y30" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="31">
@@ -6640,28 +6642,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q31" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>88.6574442201871</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V31" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W31" t="n">
-        <v>42.02425610119923</v>
+        <v>287.9270998645308</v>
       </c>
       <c r="X31" t="n">
-        <v>42.02425610119923</v>
+        <v>56.67463575990658</v>
       </c>
       <c r="Y31" t="n">
         <v>42.02425610119923</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>503.9797090310681</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C32" t="n">
-        <v>122.0459503638755</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D32" t="n">
-        <v>122.0459503638755</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E32" t="n">
-        <v>122.0459503638755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F32" t="n">
-        <v>122.0459503638755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G32" t="n">
-        <v>122.0459503638755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H32" t="n">
-        <v>122.0459503638755</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I32" t="n">
         <v>42.02425610119923</v>
@@ -6725,25 +6727,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S32" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T32" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U32" t="n">
-        <v>2010.574518555815</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="V32" t="n">
-        <v>1673.595244451756</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="W32" t="n">
-        <v>1673.595244451756</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="X32" t="n">
-        <v>1291.565103973249</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="Y32" t="n">
-        <v>898.0232485490873</v>
+        <v>1191.567699435062</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>461.879904359699</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C33" t="n">
-        <v>300.1762316006536</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D33" t="n">
-        <v>161.3375945908657</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E33" t="n">
-        <v>42.02425610119923</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F33" t="n">
-        <v>42.02425610119923</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G33" t="n">
         <v>42.02425610119923</v>
@@ -6777,52 +6779,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L33" t="n">
-        <v>697.5908003646097</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M33" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N33" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O33" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P33" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T33" t="n">
-        <v>1699.943945333632</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="U33" t="n">
-        <v>1481.449152931943</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V33" t="n">
-        <v>1253.053530380276</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.737661613587</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X33" t="n">
-        <v>813.8206734913811</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y33" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.80123859678534</v>
+        <v>1695.622277567859</v>
       </c>
       <c r="C34" t="n">
-        <v>42.02425610119923</v>
+        <v>1695.622277567859</v>
       </c>
       <c r="D34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J34" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K34" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L34" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M34" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N34" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O34" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P34" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q34" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R34" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S34" t="n">
-        <v>321.8363974045083</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T34" t="n">
-        <v>321.8363974045083</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U34" t="n">
-        <v>321.8363974045083</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V34" t="n">
-        <v>321.8363974045083</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W34" t="n">
-        <v>321.8363974045083</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X34" t="n">
-        <v>321.8363974045083</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.80123859678534</v>
+        <v>1879.177646252238</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>951.0924799753814</v>
+        <v>823.895136279257</v>
       </c>
       <c r="C35" t="n">
-        <v>569.1587213081887</v>
+        <v>823.895136279257</v>
       </c>
       <c r="D35" t="n">
-        <v>569.1587213081887</v>
+        <v>823.895136279257</v>
       </c>
       <c r="E35" t="n">
-        <v>569.1587213081887</v>
+        <v>823.895136279257</v>
       </c>
       <c r="F35" t="n">
-        <v>569.1587213081887</v>
+        <v>823.895136279257</v>
       </c>
       <c r="G35" t="n">
-        <v>153.0547347623767</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I35" t="n">
         <v>42.02425610119923</v>
@@ -6959,28 +6961,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R35" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.212805059961</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.212805059961</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="W35" t="n">
-        <v>1738.677874917562</v>
+        <v>1205.925276757764</v>
       </c>
       <c r="X35" t="n">
-        <v>1738.677874917562</v>
+        <v>823.895136279257</v>
       </c>
       <c r="Y35" t="n">
-        <v>1345.1360194934</v>
+        <v>823.895136279257</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C36" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D36" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E36" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F36" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L36" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M36" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N36" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O36" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
         <v>2101.212805059961</v>
@@ -7038,28 +7040,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S36" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T36" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U36" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V36" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W36" t="n">
-        <v>1071.521930518641</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X36" t="n">
-        <v>873.6049423964351</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y36" t="n">
-        <v>681.083616046014</v>
+        <v>1055.136542258071</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K37" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L37" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M37" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N37" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O37" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S37" t="n">
-        <v>210.8519573651974</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U37" t="n">
-        <v>42.02425610119923</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="V37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="W37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1191.567699435062</v>
+        <v>547.662729295094</v>
       </c>
       <c r="C38" t="n">
-        <v>809.6339407678688</v>
+        <v>547.662729295094</v>
       </c>
       <c r="D38" t="n">
-        <v>436.8099759950924</v>
+        <v>547.662729295094</v>
       </c>
       <c r="E38" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I38" t="n">
         <v>42.02425610119923</v>
@@ -7196,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S38" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T38" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.212805059961</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.212805059961</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.212805059961</v>
+        <v>868.9460026537049</v>
       </c>
       <c r="X38" t="n">
-        <v>1979.153094377243</v>
+        <v>547.662729295094</v>
       </c>
       <c r="Y38" t="n">
-        <v>1585.611238953081</v>
+        <v>547.662729295094</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>753.0168738400023</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C39" t="n">
-        <v>591.313201080957</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D39" t="n">
-        <v>452.4745640711691</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E39" t="n">
-        <v>305.4465541280403</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F39" t="n">
-        <v>170.7527560779147</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G39" t="n">
         <v>42.02425610119923</v>
@@ -7251,22 +7253,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L39" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M39" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N39" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O39" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
         <v>2101.212805059961</v>
@@ -7275,28 +7277,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S39" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T39" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.233421836997</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V39" t="n">
-        <v>1312.837799285331</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W39" t="n">
-        <v>1071.521930518641</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X39" t="n">
-        <v>873.6049423964351</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y39" t="n">
-        <v>873.6049423964351</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E40" t="n">
-        <v>2049.926608641128</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F40" t="n">
-        <v>1897.445953666905</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G40" t="n">
-        <v>1728.526205034755</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2021.822876670703</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="C41" t="n">
-        <v>1639.88911800351</v>
+        <v>1223.785131457699</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.065153230734</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G41" t="n">
         <v>42.02425610119923</v>
@@ -7436,25 +7438,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1860.604226410897</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.212805059961</v>
+        <v>1605.718890124891</v>
       </c>
       <c r="Y41" t="n">
-        <v>2101.212805059961</v>
+        <v>1605.718890124891</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>852.3182188323256</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C42" t="n">
-        <v>690.6145460732803</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D42" t="n">
-        <v>551.7759090634923</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E42" t="n">
-        <v>404.7478991203636</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F42" t="n">
-        <v>270.0541010702379</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3256010935225</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H42" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K42" t="n">
-        <v>44.796090196649</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L42" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M42" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.916935000113</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.116885784264</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P42" t="n">
         <v>2101.212805059961</v>
@@ -7515,25 +7517,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S42" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T42" t="n">
-        <v>1699.943945333632</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U42" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V42" t="n">
-        <v>1253.053530380276</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.737661613587</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X42" t="n">
-        <v>1011.737661613587</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y42" t="n">
-        <v>1011.737661613587</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K43" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L43" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M43" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N43" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O43" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P43" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>2101.212805059961</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R43" t="n">
-        <v>2101.212805059961</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S43" t="n">
-        <v>2101.212805059961</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T43" t="n">
-        <v>2101.212805059961</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="U43" t="n">
-        <v>1829.888864255606</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1361.64564275179</v>
+        <v>1313.62741011778</v>
       </c>
       <c r="C44" t="n">
-        <v>979.7118840845969</v>
+        <v>931.6936514505876</v>
       </c>
       <c r="D44" t="n">
-        <v>606.8879193118205</v>
+        <v>931.6936514505876</v>
       </c>
       <c r="E44" t="n">
-        <v>212.1021994179274</v>
+        <v>536.9079315566944</v>
       </c>
       <c r="F44" t="n">
-        <v>42.02425610119923</v>
+        <v>122.7567408668647</v>
       </c>
       <c r="G44" t="n">
         <v>42.02425610119923</v>
@@ -7649,16 +7651,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L44" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
         <v>1778.623654917371</v>
@@ -7670,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X44" t="n">
-        <v>1755.689182269809</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.689182269809</v>
+        <v>1707.670949635799</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C45" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D45" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E45" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F45" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I45" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L45" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M45" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N45" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O45" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
         <v>2101.212805059961</v>
@@ -7749,28 +7751,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>1481.449152931943</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W45" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y45" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>1949.20379082128</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>1796.723135847057</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>1627.803387214907</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V46" t="n">
-        <v>2101.212805059961</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7987,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406818</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -7997,7 +7999,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,13 +8057,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
@@ -8076,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8216,7 +8218,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8228,7 +8230,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8292,10 +8294,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8310,10 +8312,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>116.5350238645387</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8529,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
@@ -8541,7 +8543,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>623.1450866466196</v>
+        <v>565.082144790401</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8550,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8708,7 +8710,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,7 +8771,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8781,10 +8783,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>222.1494342538443</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>355.9386573756997</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8945,7 +8947,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>110.8430489735533</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9018,13 +9020,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9243,10 +9245,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L18" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9261,7 +9263,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9483,10 +9485,10 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>525.6967347807335</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9495,10 +9497,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,10 +9716,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>105.8554040863129</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9732,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>189.8737781226282</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9969,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>355.9386573756997</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10130,7 +10132,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,16 +10190,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>387.98835840707</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10206,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,16 +10427,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>448.8511326829348</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10443,10 +10445,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10604,7 +10606,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,7 +10682,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10899,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10917,7 +10919,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -11136,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11154,7 +11156,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q42" t="n">
         <v>113.7351914448925</v>
@@ -11303,7 +11305,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406818</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11373,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11391,7 +11393,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>113.7351914448925</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>218.0079497182219</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -22565,7 +22567,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22597,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>68.51096703623116</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22635,16 +22637,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>101.5979585925484</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22720,13 +22722,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>19.43647763297656</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.8597073339676</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22796,13 +22798,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>226.2559592225226</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22847,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>171.2791036629603</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -22908,19 +22910,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V6" t="n">
-        <v>51.75444384776114</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22954,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>101.8597073339676</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -23021,19 +23023,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>265.9869950823686</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23072,7 +23074,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>188.941059664218</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -23081,13 +23083,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>68.32860979320854</v>
       </c>
       <c r="C9" t="n">
-        <v>114.1651338436234</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23163,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23227,10 +23229,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>73.23022383480696</v>
       </c>
       <c r="T10" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>43.87163827606969</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>221.8844817357996</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23352,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23391,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>129.8123959161904</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>20.02201280110251</v>
       </c>
     </row>
     <row r="13">
@@ -23428,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U13" t="n">
         <v>284.3183371157911</v>
@@ -23507,7 +23509,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>103.8837098342884</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
         <v>329.4930616586638</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>171.2791036629602</v>
       </c>
     </row>
     <row r="15">
@@ -23577,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>124.8790041957908</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23668,13 +23670,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>19.43647763297656</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T16" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
         <v>284.3183371157911</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>189.9561998818203</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>171.2791036629602</v>
       </c>
     </row>
     <row r="18">
@@ -23811,16 +23813,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>38.50770056809694</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>228.7508747949593</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23911,7 +23913,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>211.5726649703493</v>
@@ -23947,16 +23949,16 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>169.719692027901</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.8632575422284</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23986,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
         <v>171.0890268032919</v>
@@ -24017,7 +24019,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>225.6835760665691</v>
+        <v>81.54720002385483</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>68.32860979320854</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24111,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>159.5870421279706</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24172,28 +24174,28 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>252.4471867604422</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>22.82253299547432</v>
       </c>
     </row>
     <row r="23">
@@ -24218,10 +24220,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>274.9859959897747</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>162.6616569672059</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>95.13598719576721</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24294,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>57.60636999204328</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>198.976013297129</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>40.8745217900929</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24443,22 +24445,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>295.4782584766635</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>113.4754818778341</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24528,16 +24530,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>51.05261375598219</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24604,19 +24606,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>6.13860919581424</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
-        <v>27.21075658445224</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I28" t="n">
         <v>142.7610139533483</v>
@@ -24652,7 +24654,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>284.3183371157911</v>
@@ -24664,7 +24666,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -24692,13 +24694,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>29.62570051855545</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>342.3681304662522</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24768,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>101.5979585925484</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>238.1514808779931</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>205.3109313575254</v>
       </c>
     </row>
     <row r="32">
@@ -24914,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
@@ -24935,7 +24937,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>91.86754948324246</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>238.5982112857692</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25002,13 +25004,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>77.7676814521092</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>110.7205971723063</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>151.5411742405149</v>
+        <v>26.33714366422355</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25117,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
         <v>230.8471636524779</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
@@ -25166,13 +25168,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>138.4728637660325</v>
       </c>
       <c r="H35" t="n">
-        <v>219.5728877840982</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>25.36371795516877</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25242,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>101.5979585925484</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25293,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="37">
@@ -25357,19 +25359,19 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>63.70773940111974</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>15.7076357194797</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -25406,10 +25408,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>257.3707254978302</v>
+        <v>60.1393984486968</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38.44306048257975</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,13 +25478,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
         <v>98.93847887876893</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,22 +25557,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>99.71558964164944</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>311.5070750174734</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25676,13 +25678,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>169.2695495596749</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
@@ -25722,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6301473363688785</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25828,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>15.70763571947987</v>
+        <v>174.6053794794094</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.6325148993705</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>332.0177867623451</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
@@ -25919,7 +25921,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25931,7 +25933,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25953,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26001,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>228.7508747949593</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>99.71558964164953</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -26077,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642251.3593541438</v>
+        <v>642251.359354144</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642251.3593541437</v>
+        <v>642251.3593541438</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642251.3593541437</v>
+        <v>642251.3593541438</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>642251.3593541438</v>
+        <v>642251.3593541435</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642251.3593541438</v>
+        <v>642251.3593541437</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>642251.3593541435</v>
+        <v>642251.359354144</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642251.3593541438</v>
+        <v>642251.3593541437</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642251.3593541437</v>
+        <v>642251.359354144</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="C2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143923.1563360339</v>
+      </c>
+      <c r="E2" t="n">
         <v>143923.1563360338</v>
-      </c>
-      <c r="C2" t="n">
-        <v>143923.1563360338</v>
-      </c>
-      <c r="D2" t="n">
-        <v>143923.1563360338</v>
-      </c>
-      <c r="E2" t="n">
-        <v>143923.1563360339</v>
       </c>
       <c r="F2" t="n">
         <v>143923.1563360338</v>
@@ -26329,13 +26331,13 @@
         <v>143923.1563360338</v>
       </c>
       <c r="H2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="I2" t="n">
         <v>143923.1563360338</v>
       </c>
       <c r="J2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="K2" t="n">
         <v>143923.1563360339</v>
@@ -26344,16 +26346,16 @@
         <v>143923.1563360338</v>
       </c>
       <c r="M2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="N2" t="n">
         <v>143923.1563360339</v>
       </c>
       <c r="O2" t="n">
+        <v>143923.1563360338</v>
+      </c>
+      <c r="P2" t="n">
         <v>143923.1563360339</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143923.1563360338</v>
       </c>
     </row>
     <row r="3">
@@ -26433,7 +26435,7 @@
         <v>11603.65937297562</v>
       </c>
       <c r="H4" t="n">
-        <v>11603.65937297562</v>
+        <v>11603.65937297561</v>
       </c>
       <c r="I4" t="n">
         <v>11603.65937297562</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109287.7223913806</v>
+        <v>-109287.7223913805</v>
       </c>
       <c r="C6" t="n">
-        <v>66753.46232614681</v>
+        <v>66753.46232614684</v>
       </c>
       <c r="D6" t="n">
-        <v>66753.46232614678</v>
+        <v>66753.46232614684</v>
       </c>
       <c r="E6" t="n">
         <v>100381.0623261468</v>
@@ -26543,16 +26545,16 @@
         <v>100381.0623261468</v>
       </c>
       <c r="J6" t="n">
-        <v>-37061.36846563026</v>
+        <v>-37061.36846563031</v>
       </c>
       <c r="K6" t="n">
-        <v>100381.0623261468</v>
+        <v>100381.0623261469</v>
       </c>
       <c r="L6" t="n">
         <v>100381.0623261468</v>
       </c>
       <c r="M6" t="n">
-        <v>100381.0623261468</v>
+        <v>100381.0623261469</v>
       </c>
       <c r="N6" t="n">
         <v>100381.0623261468</v>
@@ -34705,7 +34707,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435232</v>
+        <v>397.2112790435227</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34717,7 +34719,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
@@ -34796,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684674</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34948,7 +34950,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35030,10 +35032,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>516.4299455789112</v>
+        <v>458.3670037226927</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35270,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35430,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
@@ -35501,10 +35503,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>106.2899856427332</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>305.147393207775</v>
+        <v>247.0844513515564</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
@@ -35665,7 +35667,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7.787477306886596</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35738,13 +35740,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L18" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
@@ -35981,7 +35983,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K20" t="n">
         <v>242.5660323684674</v>
@@ -36203,10 +36205,10 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>410.2128322190937</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36215,10 +36217,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36452,10 +36454,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
         <v>369.5170153233491</v>
@@ -36689,7 +36691,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>247.0844513515564</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
-        <v>489.93268031336</v>
+        <v>272.5044558454301</v>
       </c>
       <c r="N30" t="n">
         <v>516.4299455789112</v>
@@ -36926,10 +36928,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
-        <v>489.93268031336</v>
+        <v>333.3672301212949</v>
       </c>
       <c r="N33" t="n">
         <v>516.4299455789112</v>
@@ -37163,10 +37165,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L36" t="n">
         <v>369.5170153233491</v>
@@ -37400,7 +37402,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37637,7 +37639,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37874,7 +37876,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
-        <v>397.2112790435227</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38111,7 +38113,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>511423.9361930215</v>
+        <v>443428.7682427475</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340089</v>
+        <v>714286.6128340086</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975868</v>
+        <v>12179384.22975867</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7426431.419821442</v>
+        <v>7426431.419821443</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>127.2173885272225</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>151.0877754068268</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>99.51704826962602</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.3424411355423</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>296.1659717969482</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6869874578313</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -992,10 +992,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>53.96880691389086</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>100.690891553375</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>63.41157804692612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>33.17429714208097</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.49663856023973</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1223,16 +1223,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1277,10 +1277,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>77.98390611024946</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>138.3424411355423</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>325.224086848979</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
@@ -1387,10 +1387,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>49.97316633575329</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1511,13 +1511,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>170.5741002858144</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.6932944279989</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>185.3566856159496</v>
@@ -1666,16 +1666,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>165.9976499655407</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,13 +1694,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1748,7 +1748,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>9.863536509526716</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.3424411355423</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>188.710645304682</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>121.5789354633579</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -1979,7 +1979,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1988,7 +1988,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>183.20848914916</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>88.40825936926059</v>
+        <v>85.66489655717932</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>186.1730089439994</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>308.0592368460655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.49663856023973</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
         <v>160.0866360314548</v>
@@ -2174,13 +2174,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2225,10 +2225,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>23.62900810605255</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.9922742241714</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>139.334852531306</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>196.247923873769</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62.68926115768106</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E24" t="n">
         <v>145.5577298436975</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>12.59665167322035</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>151.0082255841511</v>
       </c>
       <c r="H26" t="n">
-        <v>34.01480318200027</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157.8252483534483</v>
+        <v>112.8318825667147</v>
       </c>
       <c r="C27" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
         <v>67.69846245683961</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -2702,7 +2702,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>144.3503149004801</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -2800,16 +2800,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>260.4397582896165</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>382.3172461617984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>157.8252483534483</v>
+        <v>153.2266291231143</v>
       </c>
       <c r="C30" t="n">
         <v>160.0866360314548</v>
@@ -2885,13 +2885,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
         <v>226.1116663261494</v>
@@ -2936,7 +2936,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>190.5961130869169</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.50387586212028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -3040,13 +3040,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>96.50833518734143</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>13.7382716373767</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>137.533307441745</v>
       </c>
       <c r="T33" t="n">
-        <v>109.0305713435654</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>216.3098444776729</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>125.2040305762913</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>273.4700829143214</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>238.9479472503769</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>132.4615303982795</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
         <v>160.0866360314548</v>
@@ -3356,16 +3356,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3407,13 +3407,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="37">
@@ -3483,10 +3483,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>242.4203156776819</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4930616586638</v>
+        <v>182.2812986886907</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -3568,7 +3568,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>318.0704406250248</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>91.93139158138763</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>53.7895557768056</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>52.84580724662405</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
         <v>252.3364829231459</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>127.4412149769483</v>
@@ -3839,7 +3839,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>34.90452416243236</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>99.51704826962602</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.70050068014596</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>109.7129576363817</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>54.39587220415198</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>79.92515991800884</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>31.74890147707598</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483955</v>
       </c>
       <c r="T45" t="n">
         <v>186.7982527956746</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>243.4438153256983</v>
+        <v>164.6770637268295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>576.5719293207421</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="C2" t="n">
-        <v>194.6381706535495</v>
+        <v>1972.710392406201</v>
       </c>
       <c r="D2" t="n">
-        <v>42.02425610119923</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="E2" t="n">
-        <v>42.02425610119923</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F2" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G2" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H2" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I2" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J2" t="n">
         <v>114.0228003740049</v>
@@ -4339,10 +4339,10 @@
         <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4357,25 +4357,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>1689.624883421327</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>1689.624883421327</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V2" t="n">
-        <v>1352.645609317268</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W2" t="n">
-        <v>1352.645609317268</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X2" t="n">
-        <v>970.6154688387612</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y2" t="n">
-        <v>970.6154688387612</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C3" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D3" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>892.8794547815413</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
-        <v>1404.145100904663</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
-        <v>1796.345051688814</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
-        <v>2098.440970964512</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T3" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U3" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V3" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W3" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X3" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y3" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>386.0243786151989</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V4" t="n">
-        <v>386.0243786151989</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>735.225342888863</v>
+        <v>341.1818033708439</v>
       </c>
       <c r="C5" t="n">
-        <v>735.225342888863</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D5" t="n">
-        <v>735.225342888863</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E5" t="n">
-        <v>735.225342888863</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F5" t="n">
-        <v>735.225342888863</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G5" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H5" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4570,16 +4570,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C6" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D6" t="n">
-        <v>620.7947068344101</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="E6" t="n">
-        <v>473.7666968912813</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="F6" t="n">
-        <v>339.0728988411556</v>
+        <v>225.2667024555822</v>
       </c>
       <c r="G6" t="n">
-        <v>210.3443988644402</v>
+        <v>96.53820247886676</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M6" t="n">
-        <v>892.8794547815413</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N6" t="n">
-        <v>1404.145100904663</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O6" t="n">
-        <v>1796.345051688814</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P6" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4673,25 +4673,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T6" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U6" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V6" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W6" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X6" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y6" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>574.0835013471317</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="C7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4761,16 +4761,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="Y7" t="n">
-        <v>574.0835013471317</v>
+        <v>211.6402256395189</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>929.5964879622866</v>
+        <v>438.8976295411891</v>
       </c>
       <c r="C8" t="n">
-        <v>547.662729295094</v>
+        <v>438.8976295411891</v>
       </c>
       <c r="D8" t="n">
-        <v>547.662729295094</v>
+        <v>438.8976295411891</v>
       </c>
       <c r="E8" t="n">
-        <v>547.662729295094</v>
+        <v>438.8976295411891</v>
       </c>
       <c r="F8" t="n">
-        <v>547.662729295094</v>
+        <v>438.8976295411891</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>438.8976295411891</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>106.0763551384983</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4831,25 +4831,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2067.703414007354</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="U8" t="n">
-        <v>2067.703414007354</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="V8" t="n">
-        <v>2067.703414007354</v>
+        <v>1577.004555586257</v>
       </c>
       <c r="W8" t="n">
-        <v>1705.168483864955</v>
+        <v>1214.469625443858</v>
       </c>
       <c r="X8" t="n">
-        <v>1323.138343386448</v>
+        <v>832.4394849653511</v>
       </c>
       <c r="Y8" t="n">
-        <v>929.5964879622866</v>
+        <v>438.8976295411891</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4886,49 +4886,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>953.1336013146474</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>1011.737661613587</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>1011.737661613587</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>246.284539084348</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>246.284539084348</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>246.284539084348</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>246.284539084348</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W10" t="n">
-        <v>246.284539084348</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X10" t="n">
-        <v>246.284539084348</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.284539084348</v>
+        <v>120.7958784347846</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2101.212805059961</v>
+        <v>1245.103398109617</v>
       </c>
       <c r="C11" t="n">
-        <v>2101.212805059961</v>
+        <v>1245.103398109617</v>
       </c>
       <c r="D11" t="n">
-        <v>1772.703626424629</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="E11" t="n">
-        <v>1377.917906530736</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F11" t="n">
-        <v>963.766715840906</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G11" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H11" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I11" t="n">
         <v>42.02425610119923</v>
@@ -5068,25 +5068,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T11" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.212805059961</v>
+        <v>1639.146937627636</v>
       </c>
       <c r="V11" t="n">
-        <v>2101.212805059961</v>
+        <v>1639.146937627636</v>
       </c>
       <c r="W11" t="n">
-        <v>2101.212805059961</v>
+        <v>1639.146937627636</v>
       </c>
       <c r="X11" t="n">
-        <v>2101.212805059961</v>
+        <v>1639.146937627636</v>
       </c>
       <c r="Y11" t="n">
-        <v>2101.212805059961</v>
+        <v>1639.146937627636</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C12" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D12" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E12" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F12" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G12" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I12" t="n">
         <v>42.02425610119923</v>
@@ -5123,49 +5123,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L12" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M12" t="n">
-        <v>953.1336013146474</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N12" t="n">
-        <v>1464.39924743777</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O12" t="n">
-        <v>1856.59919822192</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P12" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T12" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U12" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V12" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W12" t="n">
-        <v>1253.053530380276</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X12" t="n">
-        <v>1253.053530380276</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y12" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.02425610119923</v>
+        <v>352.0483425394087</v>
       </c>
       <c r="C13" t="n">
-        <v>42.02425610119923</v>
+        <v>352.0483425394087</v>
       </c>
       <c r="D13" t="n">
-        <v>42.02425610119923</v>
+        <v>352.0483425394087</v>
       </c>
       <c r="E13" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="F13" t="n">
-        <v>42.02425610119923</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G13" t="n">
         <v>42.02425610119923</v>
@@ -5220,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X13" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.02425610119923</v>
+        <v>352.0483425394087</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C14" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D14" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E14" t="n">
-        <v>42.02425610119923</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F14" t="n">
-        <v>42.02425610119923</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G14" t="n">
         <v>42.02425610119923</v>
@@ -5302,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S14" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T14" t="n">
-        <v>1598.98659691718</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U14" t="n">
-        <v>1344.101260631174</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V14" t="n">
-        <v>1007.121986527115</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="W14" t="n">
-        <v>644.5870563847161</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="X14" t="n">
-        <v>262.5569159062094</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="Y14" t="n">
-        <v>42.02425610119923</v>
+        <v>1267.065153230734</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>461.879904359699</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C15" t="n">
-        <v>300.1762316006536</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D15" t="n">
-        <v>161.3375945908657</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E15" t="n">
-        <v>42.02425610119923</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F15" t="n">
-        <v>42.02425610119923</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G15" t="n">
         <v>42.02425610119923</v>
@@ -5381,28 +5381,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U15" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V15" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W15" t="n">
-        <v>1011.737661613587</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X15" t="n">
-        <v>813.8206734913811</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y15" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5457,31 +5457,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q16" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R16" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S16" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T16" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>386.0243786151989</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="C17" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="D17" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E17" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F17" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G17" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H17" t="n">
         <v>42.02425610119923</v>
@@ -5551,16 +5551,16 @@
         <v>1344.101260631174</v>
       </c>
       <c r="V17" t="n">
-        <v>1007.121986527115</v>
+        <v>1153.484447192101</v>
       </c>
       <c r="W17" t="n">
-        <v>644.5870563847161</v>
+        <v>790.949517049702</v>
       </c>
       <c r="X17" t="n">
-        <v>262.5569159062094</v>
+        <v>790.949517049702</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>461.879904359699</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C18" t="n">
-        <v>339.0728988411556</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D18" t="n">
-        <v>339.0728988411556</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E18" t="n">
-        <v>339.0728988411556</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F18" t="n">
-        <v>339.0728988411556</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G18" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I18" t="n">
         <v>42.02425610119923</v>
@@ -5618,28 +5618,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S18" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T18" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U18" t="n">
-        <v>1481.449152931943</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="V18" t="n">
-        <v>1253.053530380276</v>
+        <v>1531.332591687021</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.737661613587</v>
+        <v>1290.016722920331</v>
       </c>
       <c r="X18" t="n">
-        <v>813.8206734913811</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y18" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="C19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="D19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="E19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="F19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="G19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H19" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I19" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J19" t="n">
         <v>42.02425610119923</v>
@@ -5697,28 +5697,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>191.3827667771887</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>191.3827667771887</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V19" t="n">
-        <v>102.0814946870265</v>
+        <v>487.5533028045263</v>
       </c>
       <c r="W19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="X19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.0814946870265</v>
+        <v>201.3969013219254</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.02425610119923</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="C20" t="n">
-        <v>42.02425610119923</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="D20" t="n">
-        <v>42.02425610119923</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="E20" t="n">
-        <v>42.02425610119923</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F20" t="n">
-        <v>42.02425610119923</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G20" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H20" t="n">
         <v>42.02425610119923</v>
@@ -5776,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S20" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T20" t="n">
-        <v>1689.624883421327</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U20" t="n">
-        <v>1434.739547135321</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V20" t="n">
-        <v>1097.760273031262</v>
+        <v>1567.635637881931</v>
       </c>
       <c r="W20" t="n">
-        <v>735.225342888863</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="X20" t="n">
-        <v>353.1952024103563</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.02425610119923</v>
+        <v>1205.100707739532</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.3370166032433</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C21" t="n">
-        <v>759.6333438441981</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D21" t="n">
-        <v>620.7947068344101</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E21" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
@@ -5837,16 +5837,16 @@
         <v>331.768955194494</v>
       </c>
       <c r="L21" t="n">
-        <v>331.768955194494</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M21" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N21" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O21" t="n">
-        <v>1641.34525599867</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="P21" t="n">
         <v>1943.441175274367</v>
@@ -5855,28 +5855,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T21" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U21" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V21" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X21" t="n">
-        <v>1011.737661613587</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y21" t="n">
-        <v>1011.737661613587</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J22" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K22" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L22" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M22" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N22" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O22" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q22" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>1951.691023674339</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>1951.691023674339</v>
+        <v>550.215816391523</v>
       </c>
       <c r="U22" t="n">
-        <v>1951.691023674339</v>
+        <v>550.215816391523</v>
       </c>
       <c r="V22" t="n">
-        <v>1951.691023674339</v>
+        <v>550.215816391523</v>
       </c>
       <c r="W22" t="n">
-        <v>1951.691023674339</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="X22" t="n">
-        <v>1951.691023674339</v>
+        <v>264.0594149089221</v>
       </c>
       <c r="Y22" t="n">
-        <v>1752.708928498409</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>414.8482208739757</v>
+        <v>897.5215644552302</v>
       </c>
       <c r="C23" t="n">
-        <v>414.8482208739757</v>
+        <v>515.5878057880375</v>
       </c>
       <c r="D23" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E23" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G23" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H23" t="n">
         <v>42.02425610119923</v>
@@ -6016,25 +6016,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T23" t="n">
-        <v>1598.98659691718</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U23" t="n">
-        <v>1344.101260631174</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V23" t="n">
-        <v>1007.121986527115</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="W23" t="n">
-        <v>808.8917603919948</v>
+        <v>1673.595244451756</v>
       </c>
       <c r="X23" t="n">
-        <v>808.8917603919948</v>
+        <v>1291.565103973249</v>
       </c>
       <c r="Y23" t="n">
-        <v>808.8917603919948</v>
+        <v>1291.565103973249</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>557.9768611231002</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C24" t="n">
-        <v>396.2731883640549</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D24" t="n">
-        <v>257.434551354267</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J24" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K24" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L24" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M24" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N24" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O24" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P24" t="n">
-        <v>2025.835604249003</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
@@ -6174,16 +6174,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>561.3596107681212</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>328.1806575838001</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>328.1806575838001</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W25" t="n">
         <v>42.02425610119923</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>872.4675925107471</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="C26" t="n">
-        <v>490.5338338435544</v>
+        <v>962.1675019639811</v>
       </c>
       <c r="D26" t="n">
-        <v>490.5338338435544</v>
+        <v>589.3435371912046</v>
       </c>
       <c r="E26" t="n">
-        <v>490.5338338435544</v>
+        <v>194.5578172973115</v>
       </c>
       <c r="F26" t="n">
-        <v>76.38264315372476</v>
+        <v>194.5578172973115</v>
       </c>
       <c r="G26" t="n">
-        <v>76.38264315372476</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H26" t="n">
         <v>42.02425610119923</v>
@@ -6253,25 +6253,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>2010.574518555815</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T26" t="n">
-        <v>2010.574518555815</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U26" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V26" t="n">
-        <v>2010.574518555815</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="W26" t="n">
-        <v>1648.039588413416</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="X26" t="n">
-        <v>1266.009447934909</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="Y26" t="n">
-        <v>872.4675925107471</v>
+        <v>1344.101260631174</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.879904359699</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="C27" t="n">
-        <v>300.1762316006536</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D27" t="n">
-        <v>161.3375945908657</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E27" t="n">
-        <v>110.4065414111382</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F27" t="n">
-        <v>110.4065414111382</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G27" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H27" t="n">
         <v>110.4065414111382</v>
@@ -6305,22 +6305,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K27" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L27" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M27" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N27" t="n">
-        <v>1633.635653464852</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O27" t="n">
-        <v>2025.835604249003</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P27" t="n">
         <v>2101.212805059961</v>
@@ -6329,28 +6329,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T27" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U27" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V27" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X27" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y27" t="n">
-        <v>621.2993471409599</v>
+        <v>873.6049423964351</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1868.03385187564</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>1868.03385187564</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>1714.961958703403</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>1868.03385187564</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>1868.03385187564</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V28" t="n">
-        <v>1868.03385187564</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W28" t="n">
-        <v>1868.03385187564</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>1868.03385187564</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>1868.03385187564</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1182.961016068238</v>
+        <v>1392.673716862664</v>
       </c>
       <c r="C29" t="n">
-        <v>801.0272574010448</v>
+        <v>1010.739958195471</v>
       </c>
       <c r="D29" t="n">
-        <v>428.2032926282684</v>
+        <v>637.9159934226946</v>
       </c>
       <c r="E29" t="n">
-        <v>428.2032926282684</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F29" t="n">
-        <v>428.2032926282684</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H29" t="n">
         <v>42.02425610119923</v>
@@ -6487,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T29" t="n">
-        <v>1913.983829690315</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U29" t="n">
-        <v>1913.983829690315</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V29" t="n">
-        <v>1577.004555586257</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="W29" t="n">
-        <v>1577.004555586257</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="X29" t="n">
-        <v>1577.004555586257</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="Y29" t="n">
-        <v>1577.004555586257</v>
+        <v>1392.673716862664</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.3370166032433</v>
+        <v>724.2262313165888</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>562.5225585575436</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>423.6839215477556</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>276.6559116046268</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6545,22 +6545,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L30" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M30" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N30" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P30" t="n">
-        <v>1943.441175274367</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
@@ -6569,25 +6569,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S30" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T30" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U30" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W30" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X30" t="n">
-        <v>1273.277785734925</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.756459384504</v>
+        <v>879.0006041682194</v>
       </c>
     </row>
     <row r="31">
@@ -6654,16 +6654,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V31" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W31" t="n">
-        <v>287.9270998645308</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
         <v>42.02425610119923</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1191.567699435062</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="C32" t="n">
-        <v>809.6339407678688</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="D32" t="n">
-        <v>436.8099759950924</v>
+        <v>867.1144172536835</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>472.3286973597904</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H32" t="n">
         <v>42.02425610119923</v>
@@ -6724,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U32" t="n">
-        <v>1585.109554859223</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V32" t="n">
-        <v>1585.109554859223</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W32" t="n">
-        <v>1585.109554859223</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="X32" t="n">
-        <v>1585.109554859223</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="Y32" t="n">
-        <v>1191.567699435062</v>
+        <v>1239.93838202646</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>753.0168738400023</v>
+        <v>724.2262313165888</v>
       </c>
       <c r="C33" t="n">
-        <v>591.313201080957</v>
+        <v>562.5225585575436</v>
       </c>
       <c r="D33" t="n">
-        <v>452.4745640711691</v>
+        <v>423.6839215477556</v>
       </c>
       <c r="E33" t="n">
-        <v>305.4465541280403</v>
+        <v>276.6559116046268</v>
       </c>
       <c r="F33" t="n">
-        <v>170.7527560779147</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="G33" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H33" t="n">
         <v>42.02425610119923</v>
@@ -6782,22 +6782,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>42.02425610119923</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L33" t="n">
-        <v>407.8461012713149</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M33" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N33" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O33" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P33" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
@@ -6806,25 +6806,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>2101.212805059961</v>
+        <v>1962.290272290522</v>
       </c>
       <c r="T33" t="n">
-        <v>1991.080914813936</v>
+        <v>1962.290272290522</v>
       </c>
       <c r="U33" t="n">
-        <v>1772.586122412246</v>
+        <v>1743.795479888832</v>
       </c>
       <c r="V33" t="n">
-        <v>1544.19049986058</v>
+        <v>1515.399857337166</v>
       </c>
       <c r="W33" t="n">
-        <v>1302.87463109389</v>
+        <v>1274.083988570476</v>
       </c>
       <c r="X33" t="n">
-        <v>1104.957642971684</v>
+        <v>1076.167000448271</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.4363166212631</v>
+        <v>883.6456740978497</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1695.622277567859</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>1695.622277567859</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V34" t="n">
-        <v>2101.212805059961</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W34" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X34" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y34" t="n">
-        <v>1879.177646252238</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>823.895136279257</v>
+        <v>1092.322729564091</v>
       </c>
       <c r="C35" t="n">
-        <v>823.895136279257</v>
+        <v>1092.322729564091</v>
       </c>
       <c r="D35" t="n">
-        <v>823.895136279257</v>
+        <v>1092.322729564091</v>
       </c>
       <c r="E35" t="n">
-        <v>823.895136279257</v>
+        <v>697.5370096701974</v>
       </c>
       <c r="F35" t="n">
-        <v>823.895136279257</v>
+        <v>283.3858189803678</v>
       </c>
       <c r="G35" t="n">
-        <v>547.662729295094</v>
+        <v>283.3858189803678</v>
       </c>
       <c r="H35" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I35" t="n">
         <v>42.02425610119923</v>
@@ -6970,19 +6970,19 @@
         <v>1823.345543186168</v>
       </c>
       <c r="U35" t="n">
-        <v>1568.460206900163</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.460206900163</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="W35" t="n">
-        <v>1205.925276757764</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="X35" t="n">
-        <v>823.895136279257</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="Y35" t="n">
-        <v>823.895136279257</v>
+        <v>1486.36626908211</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C36" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D36" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E36" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F36" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G36" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
@@ -7040,28 +7040,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W36" t="n">
-        <v>1253.053530380276</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X36" t="n">
-        <v>1055.136542258071</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y36" t="n">
-        <v>1055.136542258071</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K37" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L37" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M37" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N37" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O37" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>1814.022565549061</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V37" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>547.662729295094</v>
+        <v>608.0805386963623</v>
       </c>
       <c r="C38" t="n">
-        <v>547.662729295094</v>
+        <v>226.1467800291696</v>
       </c>
       <c r="D38" t="n">
-        <v>547.662729295094</v>
+        <v>226.1467800291696</v>
       </c>
       <c r="E38" t="n">
-        <v>547.662729295094</v>
+        <v>226.1467800291696</v>
       </c>
       <c r="F38" t="n">
-        <v>547.662729295094</v>
+        <v>226.1467800291696</v>
       </c>
       <c r="G38" t="n">
-        <v>547.662729295094</v>
+        <v>226.1467800291696</v>
       </c>
       <c r="H38" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I38" t="n">
         <v>42.02425610119923</v>
@@ -7177,16 +7177,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L38" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M38" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N38" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O38" t="n">
         <v>1778.623654917371</v>
@@ -7198,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S38" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T38" t="n">
-        <v>1823.345543186168</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U38" t="n">
-        <v>1568.460206900163</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V38" t="n">
-        <v>1231.480932796104</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W38" t="n">
-        <v>868.9460026537049</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="X38" t="n">
-        <v>547.662729295094</v>
+        <v>608.0805386963623</v>
       </c>
       <c r="Y38" t="n">
-        <v>547.662729295094</v>
+        <v>608.0805386963623</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C39" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D39" t="n">
-        <v>161.3375945908657</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E39" t="n">
-        <v>42.02425610119923</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F39" t="n">
         <v>42.02425610119923</v>
@@ -7277,28 +7277,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T39" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U39" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V39" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X39" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y39" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="E40" t="n">
-        <v>574.0835013471317</v>
+        <v>134.8842475975504</v>
       </c>
       <c r="F40" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
         <v>42.02425610119923</v>
@@ -7365,19 +7365,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y40" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1605.718890124891</v>
+        <v>1259.433592362568</v>
       </c>
       <c r="C41" t="n">
-        <v>1223.785131457699</v>
+        <v>1259.433592362568</v>
       </c>
       <c r="D41" t="n">
-        <v>850.9611666849221</v>
+        <v>1259.433592362568</v>
       </c>
       <c r="E41" t="n">
-        <v>456.1754467910289</v>
+        <v>1259.433592362568</v>
       </c>
       <c r="F41" t="n">
-        <v>42.02425610119923</v>
+        <v>845.2824016727379</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>429.1784151269259</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>96.35714072423519</v>
       </c>
       <c r="I41" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L41" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M41" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N41" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O41" t="n">
         <v>1778.623654917371</v>
@@ -7438,25 +7438,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S41" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T41" t="n">
-        <v>1860.604226410897</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U41" t="n">
-        <v>1605.718890124891</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V41" t="n">
-        <v>1605.718890124891</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W41" t="n">
-        <v>1605.718890124891</v>
+        <v>1259.433592362568</v>
       </c>
       <c r="X41" t="n">
-        <v>1605.718890124891</v>
+        <v>1259.433592362568</v>
       </c>
       <c r="Y41" t="n">
-        <v>1605.718890124891</v>
+        <v>1259.433592362568</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>921.3370166032433</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>452.9757185879134</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>452.9757185879134</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>305.9477086447847</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>305.9477086447847</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>177.2192086680692</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>77.28135121476727</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
@@ -7505,7 +7505,7 @@
         <v>1693.889799997958</v>
       </c>
       <c r="O42" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P42" t="n">
         <v>2101.212805059961</v>
@@ -7520,22 +7520,22 @@
         <v>2041.428536154907</v>
       </c>
       <c r="T42" t="n">
-        <v>2041.428536154907</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.906265175487</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.510642623821</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W42" t="n">
-        <v>1471.194773857131</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X42" t="n">
-        <v>1273.277785734925</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y42" t="n">
-        <v>1080.756459384504</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.02425610119923</v>
+        <v>103.3378931518517</v>
       </c>
       <c r="C43" t="n">
-        <v>42.02425610119923</v>
+        <v>103.3378931518517</v>
       </c>
       <c r="D43" t="n">
-        <v>42.02425610119923</v>
+        <v>103.3378931518517</v>
       </c>
       <c r="E43" t="n">
-        <v>42.02425610119923</v>
+        <v>103.3378931518517</v>
       </c>
       <c r="F43" t="n">
-        <v>42.02425610119923</v>
+        <v>103.3378931518517</v>
       </c>
       <c r="G43" t="n">
-        <v>42.02425610119923</v>
+        <v>103.3378931518517</v>
       </c>
       <c r="H43" t="n">
-        <v>42.02425610119923</v>
+        <v>103.3378931518517</v>
       </c>
       <c r="I43" t="n">
         <v>42.02425610119923</v>
@@ -7590,31 +7590,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q43" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8454254308777</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V43" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W43" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X43" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y43" t="n">
-        <v>42.02425610119923</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1313.62741011778</v>
+        <v>845.8948425084413</v>
       </c>
       <c r="C44" t="n">
-        <v>931.6936514505876</v>
+        <v>845.8948425084413</v>
       </c>
       <c r="D44" t="n">
-        <v>931.6936514505876</v>
+        <v>845.8948425084413</v>
       </c>
       <c r="E44" t="n">
-        <v>536.9079315566944</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F44" t="n">
-        <v>122.7567408668647</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G44" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H44" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I44" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J44" t="n">
         <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187876</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037339</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
         <v>1095.287711756822</v>
@@ -7663,37 +7663,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P44" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S44" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T44" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790973</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.212805059961</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V44" t="n">
-        <v>2101.212805059961</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.212805059961</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="X44" t="n">
-        <v>2101.212805059961</v>
+        <v>1239.93838202646</v>
       </c>
       <c r="Y44" t="n">
-        <v>1707.670949635799</v>
+        <v>1239.93838202646</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>521.6641732647531</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C45" t="n">
-        <v>359.9605005057078</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D45" t="n">
-        <v>221.1218634959199</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E45" t="n">
-        <v>74.09385355279113</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F45" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G45" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H45" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I45" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J45" t="n">
-        <v>42.02425610119923</v>
+        <v>44.79609019664946</v>
       </c>
       <c r="K45" t="n">
-        <v>44.796090196649</v>
+        <v>44.79609019664946</v>
       </c>
       <c r="L45" t="n">
-        <v>410.6179353667646</v>
+        <v>410.6179353667651</v>
       </c>
       <c r="M45" t="n">
-        <v>895.6512888769911</v>
+        <v>895.6512888769915</v>
       </c>
       <c r="N45" t="n">
-        <v>1406.916935000113</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O45" t="n">
         <v>1799.116885784264</v>
       </c>
       <c r="P45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R45" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S45" t="n">
-        <v>1948.413318072701</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T45" t="n">
-        <v>1759.728214238687</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.233421836997</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V45" t="n">
-        <v>1312.837799285331</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.521930518641</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X45" t="n">
-        <v>873.6049423964351</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y45" t="n">
-        <v>681.083616046014</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="C46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="D46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E46" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F46" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G46" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H46" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I46" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J46" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K46" t="n">
         <v>75.62844384584264</v>
@@ -7833,25 +7833,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T46" t="n">
-        <v>574.0835013471317</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U46" t="n">
-        <v>328.1806575838001</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="V46" t="n">
-        <v>328.1806575838001</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="W46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="X46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.02425610119923</v>
+        <v>194.0332703398804</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
-        <v>584.3675935406818</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N2" t="n">
         <v>568.5510017355793</v>
@@ -8057,16 +8057,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.5350238645387</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8218,7 +8218,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8236,7 +8236,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,10 +8294,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8312,10 +8312,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8534,7 +8534,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8543,7 +8543,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>565.082144790401</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
@@ -8552,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8710,7 +8710,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8771,13 +8771,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8786,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9485,19 +9485,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>525.6967347807335</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>360.9263022629402</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9716,7 +9716,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9728,16 +9728,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.8737781226282</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,13 +9953,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>424.0295070382783</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9971,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10193,13 +10193,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>387.98835840707</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10208,10 +10208,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>129.0110038467633</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10430,13 +10430,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>448.8511326829348</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -11153,10 +11153,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P42" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
         <v>113.7351914448925</v>
@@ -11375,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>105.8554040863134</v>
       </c>
       <c r="K45" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>262.8857155956165</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>218.0079497182219</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -22597,22 +22597,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -22637,16 +22637,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22722,13 +22722,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>19.43647763297656</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
@@ -22761,13 +22761,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>81.94844928357253</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -22798,13 +22798,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>226.2559592225226</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22868,10 +22868,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.96967196487807</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22944,7 +22944,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -22956,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23001,7 +23001,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -23010,7 +23010,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>119.1239156662707</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>107.6774487563658</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>188.941059664218</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.32860979320854</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23111,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>103.7359088872866</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -23199,10 +23199,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>73.23022383480696</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -23244,10 +23244,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>43.87163827606969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>202.3633165873926</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.02201280110251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23424,13 +23424,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>10.79562966829545</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>157.7789187685189</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T13" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
         <v>284.3183371157911</v>
@@ -23484,7 +23484,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>329.4930616586638</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>167.6118313974773</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23636,7 +23636,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>229.0391735694963</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>19.43647763297656</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S16" t="n">
         <v>211.5726649703493</v>
@@ -23709,10 +23709,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>283.2948374677749</v>
@@ -23746,10 +23746,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>171.0890268032919</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>144.8988360583361</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>38.50770056809694</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>12.7293290918233</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>169.719692027901</v>
+        <v>172.4630548399823</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23980,13 +23980,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>171.0890268032919</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>147.4364724190186</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.54720002385483</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.32860979320854</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24174,13 +24174,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
-        <v>230.8471636524779</v>
+        <v>207.2181555464254</v>
       </c>
       <c r="U22" t="n">
         <v>284.3183371157911</v>
@@ -24189,13 +24189,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.82253299547432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>229.7608725937426</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -24223,7 +24223,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>162.6616569672059</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95.13598719576721</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>198.976013297129</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>260.9347210962028</v>
       </c>
       <c r="H26" t="n">
-        <v>295.4782584766635</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
         <v>171.0890268032919</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>44.99336578673356</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="28">
@@ -24606,10 +24606,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>6.13860919581424</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
@@ -24654,16 +24654,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>130.3981044053377</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>29.62570051855545</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>171.0890268032919</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -24748,7 +24748,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>4.598619230334009</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.3109313575254</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>313.5013435955899</v>
       </c>
       <c r="G32" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>171.0890268032919</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>238.5982112857692</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -24982,10 +24982,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -25046,10 +25046,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>13.73818467564212</v>
       </c>
       <c r="T33" t="n">
-        <v>77.7676814521092</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
-        <v>26.33714366422355</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
         <v>150.4889240962943</v>
@@ -25131,19 +25131,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
@@ -25162,19 +25162,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>138.4728637660325</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>90.54511440828693</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25.36371795516877</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25244,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>15.7076357194797</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25393,7 +25393,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
@@ -25408,10 +25408,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>147.2117629699731</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>60.1393984486968</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25557,22 +25557,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>59.02445684309302</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -25630,25 +25630,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>171.0890268032919</v>
+        <v>117.2994710264863</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>169.2695495596749</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -25712,13 +25712,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>32.79393829440725</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -25806,7 +25806,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>82.0605132732023</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>174.6053794794094</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>336.4419904908022</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>332.0177867623451</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>171.0890268032919</v>
@@ -25918,10 +25918,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25930,10 +25930,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>101.5979585925484</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -25994,7 +25994,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>101.5979585925476</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -26073,19 +26073,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>40.87452179009284</v>
+        <v>119.6412733889617</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642251.359354144</v>
+        <v>642251.3593541438</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642251.3593541438</v>
+        <v>642251.3593541437</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642251.3593541438</v>
+        <v>642251.3593541437</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642251.3593541437</v>
+        <v>642251.3593541438</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>642251.3593541435</v>
+        <v>642251.3593541438</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>642251.3593541435</v>
+        <v>642251.3593541438</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642251.3593541437</v>
+        <v>642251.3593541438</v>
       </c>
     </row>
     <row r="11">
@@ -26319,16 +26319,16 @@
         <v>143923.1563360339</v>
       </c>
       <c r="D2" t="n">
-        <v>143923.1563360339</v>
+        <v>143923.1563360338</v>
       </c>
       <c r="E2" t="n">
         <v>143923.1563360338</v>
       </c>
       <c r="F2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="G2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="H2" t="n">
         <v>143923.1563360339</v>
@@ -26337,13 +26337,13 @@
         <v>143923.1563360338</v>
       </c>
       <c r="J2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="K2" t="n">
         <v>143923.1563360339</v>
       </c>
       <c r="L2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="M2" t="n">
         <v>143923.1563360339</v>
@@ -26352,7 +26352,7 @@
         <v>143923.1563360339</v>
       </c>
       <c r="O2" t="n">
-        <v>143923.1563360338</v>
+        <v>143923.1563360339</v>
       </c>
       <c r="P2" t="n">
         <v>143923.1563360339</v>
@@ -26435,7 +26435,7 @@
         <v>11603.65937297562</v>
       </c>
       <c r="H4" t="n">
-        <v>11603.65937297561</v>
+        <v>11603.65937297562</v>
       </c>
       <c r="I4" t="n">
         <v>11603.65937297562</v>
@@ -26511,7 +26511,7 @@
         <v>31938.43463691141</v>
       </c>
       <c r="P5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109287.7223913805</v>
+        <v>-117407.3118778863</v>
       </c>
       <c r="C6" t="n">
-        <v>66753.46232614684</v>
+        <v>58633.8728396411</v>
       </c>
       <c r="D6" t="n">
-        <v>66753.46232614684</v>
+        <v>58633.87283964102</v>
       </c>
       <c r="E6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964102</v>
       </c>
       <c r="F6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964111</v>
       </c>
       <c r="G6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964108</v>
       </c>
       <c r="H6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964105</v>
       </c>
       <c r="I6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964099</v>
       </c>
       <c r="J6" t="n">
-        <v>-37061.36846563031</v>
+        <v>-45180.95795213602</v>
       </c>
       <c r="K6" t="n">
-        <v>100381.0623261469</v>
+        <v>92261.47283964105</v>
       </c>
       <c r="L6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964111</v>
       </c>
       <c r="M6" t="n">
-        <v>100381.0623261469</v>
+        <v>92261.47283964111</v>
       </c>
       <c r="N6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964108</v>
       </c>
       <c r="O6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964108</v>
       </c>
       <c r="P6" t="n">
-        <v>100381.0623261468</v>
+        <v>92261.47283964104</v>
       </c>
     </row>
   </sheetData>
@@ -26831,7 +26831,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="P4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2112790435227</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N2" t="n">
         <v>382.1528875633492</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34798,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.799832419646239</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34956,7 +34956,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35032,10 +35032,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35254,7 +35254,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35263,7 +35263,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3670037226927</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
@@ -35272,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N12" t="n">
         <v>516.4299455789112</v>
@@ -35506,10 +35506,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>410.2128322190937</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>252.0720962387968</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3652826117113</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36448,16 +36448,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.13858667773572</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K27" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5170153233491</v>
+        <v>311.4540734671306</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
@@ -36691,7 +36691,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L30" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
-        <v>272.5044558454301</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N30" t="n">
         <v>516.4299455789112</v>
@@ -36928,10 +36928,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.3652826117113</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L33" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M33" t="n">
-        <v>333.3672301212949</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
         <v>516.4299455789112</v>
@@ -37168,7 +37168,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P42" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>2.799832419646691</v>
       </c>
       <c r="K45" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
